--- a/doc/table_definition.xlsx
+++ b/doc/table_definition.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>cacktail</t>
     <phoneticPr fontId="2"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>base_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>volume</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -107,10 +103,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>material_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>グラス</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -159,10 +151,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>integer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>小数は入力時に四捨五入して</t>
     <rPh sb="0" eb="2">
       <t>ショウスウ</t>
@@ -176,10 +164,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>belongs_to material</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ウイスキー・ソーダ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -257,6 +241,10 @@
   </si>
   <si>
     <t>technique</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>base</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -660,7 +648,7 @@
   <dimension ref="B2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -702,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
@@ -716,44 +704,44 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
@@ -761,13 +749,13 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -775,44 +763,38 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -820,7 +802,7 @@
     </row>
     <row r="14" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
@@ -848,18 +830,18 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
@@ -884,24 +866,24 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
